--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnf-Tnfrsf1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnf-Tnfrsf1a.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.983973333333334</v>
+        <v>6.636579666666667</v>
       </c>
       <c r="H2">
-        <v>17.95192</v>
+        <v>19.909739</v>
       </c>
       <c r="I2">
-        <v>0.1291745374956022</v>
+        <v>0.1201574291771603</v>
       </c>
       <c r="J2">
-        <v>0.1291745374956022</v>
+        <v>0.1201574291771603</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.53682066666666</v>
+        <v>38.45264233333334</v>
       </c>
       <c r="N2">
-        <v>103.610462</v>
+        <v>115.357927</v>
       </c>
       <c r="O2">
-        <v>0.2803141013583512</v>
+        <v>0.2975040117664333</v>
       </c>
       <c r="P2">
-        <v>0.2803141013583513</v>
+        <v>0.2975040117664332</v>
       </c>
       <c r="Q2">
-        <v>206.6674138874489</v>
+        <v>255.1940242390059</v>
       </c>
       <c r="R2">
-        <v>1860.00672498704</v>
+        <v>2296.746218151053</v>
       </c>
       <c r="S2">
-        <v>0.03620944439646039</v>
+        <v>0.03574731722374627</v>
       </c>
       <c r="T2">
-        <v>0.03620944439646039</v>
+        <v>0.03574731722374627</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.983973333333334</v>
+        <v>6.636579666666667</v>
       </c>
       <c r="H3">
-        <v>17.95192</v>
+        <v>19.909739</v>
       </c>
       <c r="I3">
-        <v>0.1291745374956022</v>
+        <v>0.1201574291771603</v>
       </c>
       <c r="J3">
-        <v>0.1291745374956022</v>
+        <v>0.1201574291771603</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>143.250945</v>
       </c>
       <c r="O3">
-        <v>0.3875598963781245</v>
+        <v>0.3694391181876273</v>
       </c>
       <c r="P3">
-        <v>0.3875598963781245</v>
+        <v>0.3694391181876272</v>
       </c>
       <c r="Q3">
-        <v>285.7366116182667</v>
+        <v>316.8987696059284</v>
       </c>
       <c r="R3">
-        <v>2571.6295045644</v>
+        <v>2852.088926453355</v>
       </c>
       <c r="S3">
-        <v>0.05006287036648776</v>
+        <v>0.04439085467890238</v>
       </c>
       <c r="T3">
-        <v>0.05006287036648776</v>
+        <v>0.04439085467890238</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.983973333333334</v>
+        <v>6.636579666666667</v>
       </c>
       <c r="H4">
-        <v>17.95192</v>
+        <v>19.909739</v>
       </c>
       <c r="I4">
-        <v>0.1291745374956022</v>
+        <v>0.1201574291771603</v>
       </c>
       <c r="J4">
-        <v>0.1291745374956022</v>
+        <v>0.1201574291771603</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.228925</v>
+        <v>18.63107466666667</v>
       </c>
       <c r="N4">
-        <v>36.686775</v>
+        <v>55.893224</v>
       </c>
       <c r="O4">
-        <v>0.0992546521591712</v>
+        <v>0.1441466469015163</v>
       </c>
       <c r="P4">
-        <v>0.09925465215917122</v>
+        <v>0.1441466469015162</v>
       </c>
       <c r="Q4">
-        <v>73.17756109533333</v>
+        <v>123.6466113009485</v>
       </c>
       <c r="R4">
-        <v>658.598049858</v>
+        <v>1112.819501708536</v>
       </c>
       <c r="S4">
-        <v>0.01282117378694782</v>
+        <v>0.01732029051619408</v>
       </c>
       <c r="T4">
-        <v>0.01282117378694782</v>
+        <v>0.01732029051619408</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.983973333333334</v>
+        <v>6.636579666666667</v>
       </c>
       <c r="H5">
-        <v>17.95192</v>
+        <v>19.909739</v>
       </c>
       <c r="I5">
-        <v>0.1291745374956022</v>
+        <v>0.1201574291771603</v>
       </c>
       <c r="J5">
-        <v>0.1291745374956022</v>
+        <v>0.1201574291771603</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.69151433333333</v>
+        <v>24.41680433333333</v>
       </c>
       <c r="N5">
-        <v>86.07454300000001</v>
+        <v>73.25041299999999</v>
       </c>
       <c r="O5">
-        <v>0.232871350104353</v>
+        <v>0.1889102231444233</v>
       </c>
       <c r="P5">
-        <v>0.232871350104353</v>
+        <v>0.1889102231444233</v>
       </c>
       <c r="Q5">
-        <v>171.6892566636178</v>
+        <v>162.0440671635785</v>
       </c>
       <c r="R5">
-        <v>1545.20330997256</v>
+        <v>1458.396604472207</v>
       </c>
       <c r="S5">
-        <v>0.03008104894570627</v>
+        <v>0.02269896675831759</v>
       </c>
       <c r="T5">
-        <v>0.03008104894570627</v>
+        <v>0.02269896675831759</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.790546</v>
       </c>
       <c r="I6">
-        <v>0.005688439672135256</v>
+        <v>0.00477103065019021</v>
       </c>
       <c r="J6">
-        <v>0.005688439672135256</v>
+        <v>0.00477103065019021</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.53682066666666</v>
+        <v>38.45264233333334</v>
       </c>
       <c r="N6">
-        <v>103.610462</v>
+        <v>115.357927</v>
       </c>
       <c r="O6">
-        <v>0.2803141013583512</v>
+        <v>0.2975040117664333</v>
       </c>
       <c r="P6">
-        <v>0.2803141013583513</v>
+        <v>0.2975040117664332</v>
       </c>
       <c r="Q6">
-        <v>9.100981810250222</v>
+        <v>10.13286086201578</v>
       </c>
       <c r="R6">
-        <v>81.90883629225199</v>
+        <v>91.19574775814201</v>
       </c>
       <c r="S6">
-        <v>0.001594549854825789</v>
+        <v>0.001419400758692202</v>
       </c>
       <c r="T6">
-        <v>0.001594549854825789</v>
+        <v>0.001419400758692202</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.790546</v>
       </c>
       <c r="I7">
-        <v>0.005688439672135256</v>
+        <v>0.00477103065019021</v>
       </c>
       <c r="J7">
-        <v>0.005688439672135256</v>
+        <v>0.00477103065019021</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>143.250945</v>
       </c>
       <c r="O7">
-        <v>0.3875598963781245</v>
+        <v>0.3694391181876273</v>
       </c>
       <c r="P7">
-        <v>0.3875598963781245</v>
+        <v>0.3694391181876272</v>
       </c>
       <c r="Q7">
         <v>12.58294017399667</v>
@@ -883,10 +883,10 @@
         <v>113.24646156597</v>
       </c>
       <c r="S7">
-        <v>0.002204611089885952</v>
+        <v>0.001762605356252413</v>
       </c>
       <c r="T7">
-        <v>0.002204611089885952</v>
+        <v>0.001762605356252413</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.790546</v>
       </c>
       <c r="I8">
-        <v>0.005688439672135256</v>
+        <v>0.00477103065019021</v>
       </c>
       <c r="J8">
-        <v>0.005688439672135256</v>
+        <v>0.00477103065019021</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.228925</v>
+        <v>18.63107466666667</v>
       </c>
       <c r="N8">
-        <v>36.686775</v>
+        <v>55.893224</v>
       </c>
       <c r="O8">
-        <v>0.0992546521591712</v>
+        <v>0.1441466469015163</v>
       </c>
       <c r="P8">
-        <v>0.09925465215917122</v>
+        <v>0.1441466469015162</v>
       </c>
       <c r="Q8">
-        <v>3.222509247683333</v>
+        <v>4.909573851144889</v>
       </c>
       <c r="R8">
-        <v>29.00258322915</v>
+        <v>44.186164660304</v>
       </c>
       <c r="S8">
-        <v>0.0005646041009862147</v>
+        <v>0.0006877280704892797</v>
       </c>
       <c r="T8">
-        <v>0.0005646041009862149</v>
+        <v>0.0006877280704892796</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.790546</v>
       </c>
       <c r="I9">
-        <v>0.005688439672135256</v>
+        <v>0.00477103065019021</v>
       </c>
       <c r="J9">
-        <v>0.005688439672135256</v>
+        <v>0.00477103065019021</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>28.69151433333333</v>
+        <v>24.41680433333333</v>
       </c>
       <c r="N9">
-        <v>86.07454300000001</v>
+        <v>73.25041299999999</v>
       </c>
       <c r="O9">
-        <v>0.232871350104353</v>
+        <v>0.1889102231444233</v>
       </c>
       <c r="P9">
-        <v>0.232871350104353</v>
+        <v>0.1889102231444233</v>
       </c>
       <c r="Q9">
-        <v>7.560653963386445</v>
+        <v>6.43420233283311</v>
       </c>
       <c r="R9">
-        <v>68.045885670478</v>
+        <v>57.90782099549799</v>
       </c>
       <c r="S9">
-        <v>0.0013246746264373</v>
+        <v>0.0009012964647563155</v>
       </c>
       <c r="T9">
-        <v>0.0013246746264373</v>
+        <v>0.0009012964647563154</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5490216666666666</v>
+        <v>0.2809586666666666</v>
       </c>
       <c r="H10">
-        <v>1.647065</v>
+        <v>0.842876</v>
       </c>
       <c r="I10">
-        <v>0.01185159356771833</v>
+        <v>0.005086847862502274</v>
       </c>
       <c r="J10">
-        <v>0.01185159356771833</v>
+        <v>0.005086847862502274</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>34.53682066666666</v>
+        <v>38.45264233333334</v>
       </c>
       <c r="N10">
-        <v>103.610462</v>
+        <v>115.357927</v>
       </c>
       <c r="O10">
-        <v>0.2803141013583512</v>
+        <v>0.2975040117664333</v>
       </c>
       <c r="P10">
-        <v>0.2803141013583513</v>
+        <v>0.2975040117664332</v>
       </c>
       <c r="Q10">
-        <v>18.96146284378111</v>
+        <v>10.80360311978355</v>
       </c>
       <c r="R10">
-        <v>170.65316559403</v>
+        <v>97.232428078052</v>
       </c>
       <c r="S10">
-        <v>0.00332216880059938</v>
+        <v>0.001513357646339932</v>
       </c>
       <c r="T10">
-        <v>0.003322168800599381</v>
+        <v>0.001513357646339932</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5490216666666666</v>
+        <v>0.2809586666666666</v>
       </c>
       <c r="H11">
-        <v>1.647065</v>
+        <v>0.842876</v>
       </c>
       <c r="I11">
-        <v>0.01185159356771833</v>
+        <v>0.005086847862502274</v>
       </c>
       <c r="J11">
-        <v>0.01185159356771833</v>
+        <v>0.005086847862502274</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>143.250945</v>
       </c>
       <c r="O11">
-        <v>0.3875598963781245</v>
+        <v>0.3694391181876273</v>
       </c>
       <c r="P11">
-        <v>0.3875598963781245</v>
+        <v>0.3694391181876272</v>
       </c>
       <c r="Q11">
-        <v>26.21595752515833</v>
+        <v>13.41586483531333</v>
       </c>
       <c r="R11">
-        <v>235.943617726425</v>
+        <v>120.74278351782</v>
       </c>
       <c r="S11">
-        <v>0.004593202375020563</v>
+        <v>0.001879280588677457</v>
       </c>
       <c r="T11">
-        <v>0.004593202375020563</v>
+        <v>0.001879280588677456</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5490216666666666</v>
+        <v>0.2809586666666666</v>
       </c>
       <c r="H12">
-        <v>1.647065</v>
+        <v>0.842876</v>
       </c>
       <c r="I12">
-        <v>0.01185159356771833</v>
+        <v>0.005086847862502274</v>
       </c>
       <c r="J12">
-        <v>0.01185159356771833</v>
+        <v>0.005086847862502274</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.228925</v>
+        <v>18.63107466666667</v>
       </c>
       <c r="N12">
-        <v>36.686775</v>
+        <v>55.893224</v>
       </c>
       <c r="O12">
-        <v>0.0992546521591712</v>
+        <v>0.1441466469015163</v>
       </c>
       <c r="P12">
-        <v>0.09925465215917122</v>
+        <v>0.1441466469015162</v>
       </c>
       <c r="Q12">
-        <v>6.713944785041665</v>
+        <v>5.234561896913777</v>
       </c>
       <c r="R12">
-        <v>60.425503065375</v>
+        <v>47.111057072224</v>
       </c>
       <c r="S12">
-        <v>0.001176325797095754</v>
+        <v>0.000733252062677848</v>
       </c>
       <c r="T12">
-        <v>0.001176325797095754</v>
+        <v>0.0007332520626778479</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5490216666666666</v>
+        <v>0.2809586666666666</v>
       </c>
       <c r="H13">
-        <v>1.647065</v>
+        <v>0.842876</v>
       </c>
       <c r="I13">
-        <v>0.01185159356771833</v>
+        <v>0.005086847862502274</v>
       </c>
       <c r="J13">
-        <v>0.01185159356771833</v>
+        <v>0.005086847862502274</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.69151433333333</v>
+        <v>24.41680433333333</v>
       </c>
       <c r="N13">
-        <v>86.07454300000001</v>
+        <v>73.25041299999999</v>
       </c>
       <c r="O13">
-        <v>0.232871350104353</v>
+        <v>0.1889102231444233</v>
       </c>
       <c r="P13">
-        <v>0.232871350104353</v>
+        <v>0.1889102231444233</v>
       </c>
       <c r="Q13">
-        <v>15.75226301847722</v>
+        <v>6.860112789754221</v>
       </c>
       <c r="R13">
-        <v>141.770367166295</v>
+        <v>61.74101510778799</v>
       </c>
       <c r="S13">
-        <v>0.002759896595002634</v>
+        <v>0.0009609575648070372</v>
       </c>
       <c r="T13">
-        <v>0.002759896595002634</v>
+        <v>0.0009609575648070371</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>39.52820233333333</v>
+        <v>48.051317</v>
       </c>
       <c r="H14">
-        <v>118.584607</v>
+        <v>144.153951</v>
       </c>
       <c r="I14">
-        <v>0.8532854292645441</v>
+        <v>0.8699846923101473</v>
       </c>
       <c r="J14">
-        <v>0.8532854292645441</v>
+        <v>0.8699846923101472</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>34.53682066666666</v>
+        <v>38.45264233333334</v>
       </c>
       <c r="N14">
-        <v>103.610462</v>
+        <v>115.357927</v>
       </c>
       <c r="O14">
-        <v>0.2803141013583512</v>
+        <v>0.2975040117664333</v>
       </c>
       <c r="P14">
-        <v>0.2803141013583513</v>
+        <v>0.2975040117664332</v>
       </c>
       <c r="Q14">
-        <v>1365.178435262048</v>
+        <v>1847.70010624662</v>
       </c>
       <c r="R14">
-        <v>12286.60591735843</v>
+        <v>16629.30095621958</v>
       </c>
       <c r="S14">
-        <v>0.2391879383064656</v>
+        <v>0.2588239361376549</v>
       </c>
       <c r="T14">
-        <v>0.2391879383064657</v>
+        <v>0.2588239361376548</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>39.52820233333333</v>
+        <v>48.051317</v>
       </c>
       <c r="H15">
-        <v>118.584607</v>
+        <v>144.153951</v>
       </c>
       <c r="I15">
-        <v>0.8532854292645441</v>
+        <v>0.8699846923101473</v>
       </c>
       <c r="J15">
-        <v>0.8532854292645441</v>
+        <v>0.8699846923101472</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>143.250945</v>
       </c>
       <c r="O15">
-        <v>0.3875598963781245</v>
+        <v>0.3694391181876273</v>
       </c>
       <c r="P15">
-        <v>0.3875598963781245</v>
+        <v>0.3694391181876272</v>
       </c>
       <c r="Q15">
-        <v>1887.484112800402</v>
+        <v>2294.465522914855</v>
       </c>
       <c r="R15">
-        <v>16987.35701520362</v>
+        <v>20650.1897062337</v>
       </c>
       <c r="S15">
-        <v>0.3306992125467302</v>
+        <v>0.321406377563795</v>
       </c>
       <c r="T15">
-        <v>0.3306992125467302</v>
+        <v>0.321406377563795</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>39.52820233333333</v>
+        <v>48.051317</v>
       </c>
       <c r="H16">
-        <v>118.584607</v>
+        <v>144.153951</v>
       </c>
       <c r="I16">
-        <v>0.8532854292645441</v>
+        <v>0.8699846923101473</v>
       </c>
       <c r="J16">
-        <v>0.8532854292645441</v>
+        <v>0.8699846923101472</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.228925</v>
+        <v>18.63107466666667</v>
       </c>
       <c r="N16">
-        <v>36.686775</v>
+        <v>55.893224</v>
       </c>
       <c r="O16">
-        <v>0.0992546521591712</v>
+        <v>0.1441466469015163</v>
       </c>
       <c r="P16">
-        <v>0.09925465215917122</v>
+        <v>0.1441466469015162</v>
       </c>
       <c r="Q16">
-        <v>483.3874217191583</v>
+        <v>895.2476748586694</v>
       </c>
       <c r="R16">
-        <v>4350.486795472425</v>
+        <v>8057.229073728025</v>
       </c>
       <c r="S16">
-        <v>0.08469254847414141</v>
+        <v>0.1254053762521551</v>
       </c>
       <c r="T16">
-        <v>0.08469254847414141</v>
+        <v>0.125405376252155</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>39.52820233333333</v>
+        <v>48.051317</v>
       </c>
       <c r="H17">
-        <v>118.584607</v>
+        <v>144.153951</v>
       </c>
       <c r="I17">
-        <v>0.8532854292645441</v>
+        <v>0.8699846923101473</v>
       </c>
       <c r="J17">
-        <v>0.8532854292645441</v>
+        <v>0.8699846923101472</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>28.69151433333333</v>
+        <v>24.41680433333333</v>
       </c>
       <c r="N17">
-        <v>86.07454300000001</v>
+        <v>73.25041299999999</v>
       </c>
       <c r="O17">
-        <v>0.232871350104353</v>
+        <v>0.1889102231444233</v>
       </c>
       <c r="P17">
-        <v>0.232871350104353</v>
+        <v>0.1889102231444233</v>
       </c>
       <c r="Q17">
-        <v>1134.123983817733</v>
+        <v>1173.259605147974</v>
       </c>
       <c r="R17">
-        <v>10207.1158543596</v>
+        <v>10559.33644633176</v>
       </c>
       <c r="S17">
-        <v>0.1987057299372068</v>
+        <v>0.1643490023565424</v>
       </c>
       <c r="T17">
-        <v>0.1987057299372068</v>
+        <v>0.1643490023565423</v>
       </c>
     </row>
   </sheetData>
